--- a/core/guild.xlsx
+++ b/core/guild.xlsx
@@ -15,13 +15,90 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>1076954067823251617</t>
+  </si>
+  <si>
+    <t>1079112886967873606</t>
+  </si>
+  <si>
+    <t>Badge_bot_server</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>1091933458525327513</t>
+  </si>
+  <si>
+    <t>1091933459192238162</t>
+  </si>
+  <si>
+    <t>kyoharo's server</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>1091961825781891163</t>
+  </si>
+  <si>
+    <t>1121082544377569410</t>
+  </si>
+  <si>
+    <t>kyoharo</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>1114187435497246891</t>
+  </si>
+  <si>
+    <t>1114187435497246894</t>
+  </si>
+  <si>
+    <t>AVCB Team</t>
+  </si>
+  <si>
+    <t>avc-bot</t>
+  </si>
+  <si>
+    <t>987051677045624912</t>
+  </si>
+  <si>
+    <t>1079836876506153093</t>
+  </si>
+  <si>
+    <t>W45</t>
+  </si>
+  <si>
+    <t>⑇المـسـاعد-الخـفي</t>
+  </si>
+  <si>
+    <t>1002704246287900792</t>
+  </si>
+  <si>
+    <t>1110359019845070918</t>
+  </si>
+  <si>
+    <t>狐. - 𝑲𝑰𝑻𝑺𝑼𝑵𝑬.</t>
+  </si>
+  <si>
+    <t>𝑪𝒉𝒂𝒕𝑩𝒐𝒕-🤖-ذكاء-صناعي</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,46 +109,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +149,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -101,31 +164,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +194,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -147,30 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,43 +268,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,72 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,65 +442,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,15 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -444,9 +536,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,11 +562,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,154 +573,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -978,14 +1076,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="36.9259259259259" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/core/guild.xlsx
+++ b/core/guild.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1076954067823251617</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>𝑪𝒉𝒂𝒕𝑩𝒐𝒕-🤖-ذكاء-صناعي</t>
+  </si>
+  <si>
+    <t>1081893876756914249</t>
   </si>
 </sst>
 </file>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,7 +114,135 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,134 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,13 +271,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,163 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,15 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,9 +491,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,28 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,162 +571,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -727,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1076,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
@@ -1172,6 +1178,11 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/core/guild.xlsx
+++ b/core/guild.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>1076954067823251617</t>
   </si>
@@ -91,6 +89,78 @@
   </si>
   <si>
     <t>1081893876756914249</t>
+  </si>
+  <si>
+    <t>1081307928763576331</t>
+  </si>
+  <si>
+    <t>1125909372330070116</t>
+  </si>
+  <si>
+    <t>MLBB Custom</t>
+  </si>
+  <si>
+    <t>ai-chatbot</t>
+  </si>
+  <si>
+    <t>1113196270622887998</t>
+  </si>
+  <si>
+    <t>1134894837854912644</t>
+  </si>
+  <si>
+    <t>🅒🅐🅜🅟🅘🅞🅝🅔</t>
+  </si>
+  <si>
+    <t>hot-pics</t>
+  </si>
+  <si>
+    <t>1134776483034955776</t>
+  </si>
+  <si>
+    <t>1135885253190361189</t>
+  </si>
+  <si>
+    <t>~ Az )</t>
+  </si>
+  <si>
+    <t>oan</t>
+  </si>
+  <si>
+    <t>609400404223983664</t>
+  </si>
+  <si>
+    <t>1135594725156601937</t>
+  </si>
+  <si>
+    <t>ay 7aga</t>
+  </si>
+  <si>
+    <t>ggwp</t>
+  </si>
+  <si>
+    <t>1125697049409617950</t>
+  </si>
+  <si>
+    <t>1126546470116536380</t>
+  </si>
+  <si>
+    <t>SHILAULAU HOUSE</t>
+  </si>
+  <si>
+    <t>chat-gpt</t>
+  </si>
+  <si>
+    <t>602304044098387970</t>
+  </si>
+  <si>
+    <t>1115872229222260837</t>
+  </si>
+  <si>
+    <t>OANBot Support</t>
+  </si>
+  <si>
+    <t>moderator-only</t>
   </si>
 </sst>
 </file>
@@ -99,9 +169,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,25 +182,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +235,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,40 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,50 +323,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,13 +341,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,163 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,17 +561,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -514,6 +573,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +622,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,178 +641,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,107 +1153,205 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="36.9259259259259" customWidth="1"/>
+    <col min="2" max="2" width="21.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.9259259259259" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1190,38 +1359,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>